--- a/21点记牌器.xlsx
+++ b/21点记牌器.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>一副牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,10 +158,6 @@
   </si>
   <si>
     <t>加减牌数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小牌比大牌多</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,11 +299,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$M$3" max="24" page="10" val="5"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$M$3" max="24" page="10" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$N$3" max="24" page="10" val="4"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$N$3" max="24" page="10" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -319,7 +315,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$E$3" max="24" page="10" val="8"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$E$3" max="24" page="10" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -327,7 +323,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$G$3" max="24" page="10" val="7"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$G$3" max="24" page="10" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,7 +339,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$K$3" max="24" page="10" val="6"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$K$3" max="24" page="10" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1252,7 +1248,7 @@
   <dimension ref="B2:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1699,7 +1695,7 @@
   <dimension ref="B2:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1760,13 +1756,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1778,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -1988,7 +1984,7 @@
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
@@ -1996,7 +1992,7 @@
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="0"/>
@@ -2012,7 +2008,7 @@
       </c>
       <c r="K13" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="0"/>
@@ -2020,11 +2016,11 @@
       </c>
       <c r="M13" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
@@ -2045,7 +2041,7 @@
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="1"/>
@@ -2053,7 +2049,7 @@
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="1"/>
@@ -2069,7 +2065,7 @@
       </c>
       <c r="K14" s="6">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="1"/>
@@ -2077,11 +2073,11 @@
       </c>
       <c r="M14" s="6">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N14" s="6">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O14" s="6">
         <f t="shared" si="1"/>
@@ -2094,14 +2090,14 @@
       </c>
       <c r="C17" s="6">
         <f>SUM(D14:H14)</f>
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="7">
         <f>C17/SUM(C14:O14)*100</f>
-        <v>37.234042553191486</v>
+        <v>38.461538461538467</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -2110,14 +2106,14 @@
       </c>
       <c r="C18" s="2">
         <f>SUM(I14:K14)</f>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="2">
         <f>C18/SUM(C14:O14)*100</f>
-        <v>23.404255319148938</v>
+        <v>23.076923076923077</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -2126,31 +2122,30 @@
       </c>
       <c r="C19" s="6">
         <f>C14+L14+M14+N14+O14</f>
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="7">
         <f>C19/SUM(C14:O14)*100</f>
-        <v>39.361702127659576</v>
+        <v>38.461538461538467</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="6">
-        <f>C17-C19</f>
-        <v>-6</v>
-      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="2">
-        <f>SUM(D12:H12)-(SUM(L12:O12)+C12)</f>
+        <f>(SUM(D13:H13)* 1)-((SUM(L13:O13)+C13)*-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <f>C21/牌信息!E2</f>
         <v>0</v>
       </c>
     </row>
@@ -2165,12 +2160,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
     <mergeCell ref="N4:N8"/>
     <mergeCell ref="O4:O8"/>
     <mergeCell ref="H4:H8"/>
@@ -2179,6 +2168,12 @@
     <mergeCell ref="K4:K8"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="M4:M8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/21点记牌器.xlsx
+++ b/21点记牌器.xlsx
@@ -1694,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2141,11 +2141,15 @@
         <v>33</v>
       </c>
       <c r="C21" s="2">
-        <f>(SUM(D13:H13)* 1)-((SUM(L13:O13)+C13)*-1)</f>
+        <f>(SUM(D13:H13)* 1)+((SUM(L13:O13)+C13)*-1)</f>
         <v>0</v>
       </c>
       <c r="D21" s="2">
-        <f>C21/牌信息!E2</f>
+        <f>C21/(牌信息!E2-INT(SUM(C13:O13)/牌信息!C2))</f>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f>INT(SUM(C13:O13)/牌信息!C2)</f>
         <v>0</v>
       </c>
     </row>
@@ -2160,6 +2164,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
     <mergeCell ref="N4:N8"/>
     <mergeCell ref="O4:O8"/>
     <mergeCell ref="H4:H8"/>
@@ -2168,12 +2178,6 @@
     <mergeCell ref="K4:K8"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="M4:M8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/21点记牌器.xlsx
+++ b/21点记牌器.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="牌信息" sheetId="1" r:id="rId1"/>
-    <sheet name="结果" sheetId="3" r:id="rId2"/>
+    <sheet name="法则" sheetId="4" r:id="rId2"/>
+    <sheet name="结果" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="69">
   <si>
     <t>一副牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +159,128 @@
   </si>
   <si>
     <t>加减牌数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍或拿牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投降或拿牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍或停牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄家明牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的牌1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的牌2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的牌3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的牌和值1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的牌和值2</t>
+  </si>
+  <si>
+    <t>我的牌和值3</t>
+  </si>
+  <si>
+    <t>停牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,8 +319,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +356,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -267,11 +428,48 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1248,7 +1446,7 @@
   <dimension ref="B2:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1691,57 +1889,1516 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:O39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10">
+        <v>4</v>
+      </c>
+      <c r="F3" s="10">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10">
+        <v>6</v>
+      </c>
+      <c r="H3" s="10">
+        <v>7</v>
+      </c>
+      <c r="I3" s="10">
+        <v>8</v>
+      </c>
+      <c r="J3" s="10">
+        <v>9</v>
+      </c>
+      <c r="K3" s="10">
+        <v>10</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>7</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>8</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>17</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>18</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>19</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>20</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>21</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>22</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>44</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>55</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>66</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>77</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>88</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L37">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>99</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>1010</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L39">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O22"/>
+  <dimension ref="B2:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="2:15" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="23"/>
+      <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="25">
         <v>2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="25">
         <v>3</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="25">
         <v>4</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="25">
         <v>5</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="25">
         <v>6</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="25">
         <v>7</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="25">
         <v>8</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="25">
         <v>9</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="25">
         <v>10</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="25" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1749,416 +3406,518 @@
       <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
+      <c r="C3" s="24">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24">
+        <v>0</v>
+      </c>
+      <c r="E3" s="24">
+        <v>0</v>
+      </c>
+      <c r="F3" s="24">
+        <v>0</v>
+      </c>
+      <c r="G3" s="24">
+        <v>0</v>
+      </c>
+      <c r="H3" s="24">
+        <v>0</v>
+      </c>
+      <c r="I3" s="24">
+        <v>0</v>
+      </c>
+      <c r="J3" s="24">
+        <v>0</v>
+      </c>
+      <c r="K3" s="24">
+        <v>0</v>
+      </c>
+      <c r="L3" s="24">
+        <v>0</v>
+      </c>
+      <c r="M3" s="24">
+        <v>0</v>
+      </c>
+      <c r="N3" s="24">
+        <v>0</v>
+      </c>
+      <c r="O3" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3">
-        <v>4</v>
-      </c>
-      <c r="G11" s="3">
-        <v>5</v>
-      </c>
-      <c r="H11" s="3">
-        <v>6</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="B11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="13">
         <v>7</v>
       </c>
-      <c r="J11" s="3">
-        <v>8</v>
-      </c>
-      <c r="K11" s="3">
-        <v>9</v>
-      </c>
-      <c r="L11" s="3">
-        <v>10</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>26</v>
+      <c r="D11">
+        <f>IF(C11="A",1,C11)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2">
-        <f>牌信息!C4</f>
-        <v>24</v>
-      </c>
-      <c r="D12" s="2">
-        <f>牌信息!C5</f>
-        <v>24</v>
-      </c>
-      <c r="E12" s="2">
-        <f>牌信息!C6</f>
-        <v>24</v>
-      </c>
-      <c r="F12" s="2">
-        <f>牌信息!C7</f>
-        <v>24</v>
-      </c>
-      <c r="G12" s="2">
-        <f>牌信息!C8</f>
-        <v>24</v>
-      </c>
-      <c r="H12" s="2">
-        <f>牌信息!C9</f>
-        <v>24</v>
-      </c>
-      <c r="I12" s="2">
-        <f>牌信息!C10</f>
-        <v>24</v>
-      </c>
-      <c r="J12" s="2">
-        <f>牌信息!C11</f>
-        <v>24</v>
-      </c>
-      <c r="K12" s="2">
-        <f>牌信息!C12</f>
-        <v>24</v>
-      </c>
-      <c r="L12" s="2">
-        <f>牌信息!C13</f>
-        <v>24</v>
-      </c>
-      <c r="M12" s="2">
-        <f>牌信息!C14</f>
-        <v>24</v>
-      </c>
-      <c r="N12" s="2">
-        <f>牌信息!C15</f>
-        <v>24</v>
-      </c>
-      <c r="O12" s="2">
-        <f>牌信息!C16</f>
-        <v>24</v>
+        <v>61</v>
+      </c>
+      <c r="C12" s="14">
+        <v>2</v>
+      </c>
+      <c r="D12" s="14">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <f>IF(AND(COUNTIF(C12:D12,"A") &gt; 0,C12=D12),18,IF(AND(COUNTIF(C12:D12,"A") &gt; 0),SUM(C12:D12)+17,IF(AND(C12=D12,SUM(C12:D12)&gt;0),C12+26,IF(SUM(C12:D12)&gt;4,SUM(C12:D12)-4,0))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2">
-        <f>C3</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13:O13" si="0">D3</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13">
+        <f>IF(AND(COUNTIF(C13:D13,"A") &gt; 0,C13=D13),18,IF(AND(COUNTIF(C13:D13,"A") &gt; 0),SUM(C13:D13)+17,IF(AND(C13=D13,SUM(C13:D13)&gt;0),C13+26,IF(SUM(C13:D13)&gt;4,SUM(C13:D13)-4,0))))</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="6">
-        <f>C12-C13</f>
-        <v>24</v>
-      </c>
-      <c r="D14" s="6">
-        <f t="shared" ref="D14:O14" si="1">D12-D13</f>
-        <v>24</v>
-      </c>
-      <c r="E14" s="6">
+        <v>63</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14">
+        <f>IF(AND(COUNTIF(C14:D14,"A") &gt; 0,C14=D14),18,IF(AND(COUNTIF(C14:D14,"A") &gt; 0),SUM(C14:D14)+17,IF(AND(C14=D14,SUM(C14:D14)&gt;0),C14+26,IF(SUM(C14:D14)&gt;4,SUM(C14:D14)-4,0))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6</v>
+      </c>
+      <c r="I16" s="3">
+        <v>7</v>
+      </c>
+      <c r="J16" s="3">
+        <v>8</v>
+      </c>
+      <c r="K16" s="3">
+        <v>9</v>
+      </c>
+      <c r="L16" s="3">
+        <v>10</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2">
+        <f>牌信息!C4</f>
+        <v>24</v>
+      </c>
+      <c r="D17" s="2">
+        <f>牌信息!C5</f>
+        <v>24</v>
+      </c>
+      <c r="E17" s="2">
+        <f>牌信息!C6</f>
+        <v>24</v>
+      </c>
+      <c r="F17" s="2">
+        <f>牌信息!C7</f>
+        <v>24</v>
+      </c>
+      <c r="G17" s="2">
+        <f>牌信息!C8</f>
+        <v>24</v>
+      </c>
+      <c r="H17" s="2">
+        <f>牌信息!C9</f>
+        <v>24</v>
+      </c>
+      <c r="I17" s="2">
+        <f>牌信息!C10</f>
+        <v>24</v>
+      </c>
+      <c r="J17" s="2">
+        <f>牌信息!C11</f>
+        <v>24</v>
+      </c>
+      <c r="K17" s="2">
+        <f>牌信息!C12</f>
+        <v>24</v>
+      </c>
+      <c r="L17" s="2">
+        <f>牌信息!C13</f>
+        <v>24</v>
+      </c>
+      <c r="M17" s="2">
+        <f>牌信息!C14</f>
+        <v>24</v>
+      </c>
+      <c r="N17" s="2">
+        <f>牌信息!C15</f>
+        <v>24</v>
+      </c>
+      <c r="O17" s="2">
+        <f>牌信息!C16</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2">
+        <f>C3</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:O18" si="0">D3</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="6">
+        <f>C17-C18</f>
+        <v>24</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" ref="D19:O19" si="1">D17-D18</f>
+        <v>24</v>
+      </c>
+      <c r="E19" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F19" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G19" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H19" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I19" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J19" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K19" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L19" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M19" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N19" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O19" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="6">
-        <f>SUM(D14:H14)</f>
+      <c r="C21" s="6">
+        <f>SUM(D19:H19)</f>
         <v>120</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="7">
-        <f>C17/SUM(C14:O14)*100</f>
+      <c r="E21" s="7">
+        <f>C21/SUM(C19:O19)*100</f>
         <v>38.461538461538467</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="G21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21">
+        <f>SUM(C12:D12) +  IF( COUNTIF(C12:D12,"A") &gt; 0, 1,0)</f>
+        <v>5</v>
+      </c>
+      <c r="I21" s="17">
+        <f>SUM(C12:D12) +  IF( COUNTIF(C12:D12,"A") &gt; 0, 11,0)</f>
+        <v>5</v>
+      </c>
+      <c r="J21" t="str">
+        <f>INDEX(法则!B4:K39,E12,D11)</f>
+        <v>H</v>
+      </c>
+      <c r="K21" t="str">
+        <f>LOOKUP(1,0/(法则!$N$3:$N$8=J21),法则!$O$3:$O$8)</f>
+        <v>拿牌</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="2">
-        <f>SUM(I14:K14)</f>
+      <c r="C22" s="2">
+        <f>SUM(I19:K19)</f>
         <v>72</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="2">
-        <f>C18/SUM(C14:O14)*100</f>
+      <c r="E22" s="2">
+        <f>C22/SUM(C19:O19)*100</f>
         <v>23.076923076923077</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="G22" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22">
+        <f>SUM(C13:D13) +  IF( COUNTIF(C13:D13,"A") &gt; 0, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="22">
+        <f>SUM(C13:D13) +  IF( COUNTIF(C13:D13,"A") &gt; 0, 11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" t="str">
+        <f>INDEX(法则!B5:K40,E13,D11)</f>
+        <v>H</v>
+      </c>
+      <c r="K22" t="str">
+        <f>LOOKUP(1,0/(法则!$N$3:$N$8=J22),法则!$O$3:$O$8)</f>
+        <v>拿牌</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="6">
-        <f>C14+L14+M14+N14+O14</f>
+      <c r="C23" s="6">
+        <f>C19+L19+M19+N19+O19</f>
         <v>120</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="7">
-        <f>C19/SUM(C14:O14)*100</f>
+      <c r="E23" s="7">
+        <f>C23/SUM(C19:O19)*100</f>
         <v>38.461538461538467</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+      <c r="G23" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23">
+        <f>SUM(C14:D14) +  IF( COUNTIF(C14:D14,"A") &gt; 0, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="17">
+        <f>SUM(C14:D14) +  IF( COUNTIF(C14:D14,"A") &gt; 0, 11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" t="str">
+        <f>INDEX(法则!B6:K41,E14,D11)</f>
+        <v>H</v>
+      </c>
+      <c r="K23" t="str">
+        <f>LOOKUP(1,0/(法则!$N$3:$N$8=J23),法则!$O$3:$O$8)</f>
+        <v>拿牌</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="2">
-        <f>(SUM(D13:H13)* 1)+((SUM(L13:O13)+C13)*-1)</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <f>C21/(牌信息!E2-INT(SUM(C13:O13)/牌信息!C2))</f>
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <f>INT(SUM(C13:O13)/牌信息!C2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="C24" s="2">
+        <f>(SUM(D18:H18)* 1)+((SUM(L18:O18)+C18)*-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <f>C24/(牌信息!E2-INT(SUM(C18:O18)/牌信息!C2))</f>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f>INT(SUM(C18:O18)/牌信息!C2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="2">
-        <f>C21/SUM(C14:O14)*100</f>
+      <c r="C25" s="2">
+        <f>C24/SUM(C19:O19)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -2180,6 +3939,14 @@
     <mergeCell ref="M4:M8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="庄家明牌" prompt="选择庄家明牌" sqref="C11">
+      <formula1>$C$2:$L$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="我的牌" prompt="选择我的牌" sqref="C12:D14">
+      <formula1>$C$2:$L$2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/21点记牌器.xlsx
+++ b/21点记牌器.xlsx
@@ -437,12 +437,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,6 +464,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1945,34 +1945,34 @@
       <c r="A4" s="9">
         <v>5</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="21" t="s">
+      <c r="B4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>46</v>
       </c>
       <c r="L4">
@@ -1989,34 +1989,34 @@
       <c r="A5" s="9">
         <v>6</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="21" t="s">
+      <c r="B5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="19" t="s">
         <v>46</v>
       </c>
       <c r="L5">
@@ -2033,34 +2033,34 @@
       <c r="A6" s="9">
         <v>7</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="21" t="s">
+      <c r="B6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="19" t="s">
         <v>46</v>
       </c>
       <c r="L6">
@@ -2077,34 +2077,34 @@
       <c r="A7" s="9">
         <v>8</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="21" t="s">
+      <c r="B7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="19" t="s">
         <v>46</v>
       </c>
       <c r="L7">
@@ -2431,34 +2431,34 @@
       <c r="A16" s="9">
         <v>17</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" s="20" t="s">
+      <c r="B16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="18" t="s">
         <v>47</v>
       </c>
       <c r="L16">
@@ -2469,34 +2469,34 @@
       <c r="A17" s="9">
         <v>18</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="20" t="s">
+      <c r="B17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="18" t="s">
         <v>47</v>
       </c>
       <c r="L17">
@@ -2507,34 +2507,34 @@
       <c r="A18" s="9">
         <v>19</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" s="20" t="s">
+      <c r="B18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="18" t="s">
         <v>47</v>
       </c>
       <c r="L18">
@@ -2545,34 +2545,34 @@
       <c r="A19" s="9">
         <v>20</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" s="20" t="s">
+      <c r="B19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="18" t="s">
         <v>47</v>
       </c>
       <c r="L19">
@@ -2583,34 +2583,34 @@
       <c r="A20" s="9">
         <v>21</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="20" t="s">
+      <c r="B20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="18" t="s">
         <v>47</v>
       </c>
       <c r="L20">
@@ -2621,34 +2621,34 @@
       <c r="A21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21" s="19" t="s">
+      <c r="B21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="17" t="s">
         <v>48</v>
       </c>
       <c r="L21">
@@ -2887,34 +2887,34 @@
       <c r="A28" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K28" s="20" t="s">
+      <c r="B28" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="18" t="s">
         <v>47</v>
       </c>
       <c r="L28">
@@ -2925,34 +2925,34 @@
       <c r="A29" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29" s="20" t="s">
+      <c r="B29" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="18" t="s">
         <v>47</v>
       </c>
       <c r="L29">
@@ -2963,34 +2963,34 @@
       <c r="A30" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K30" s="20" t="s">
+      <c r="B30" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="18" t="s">
         <v>47</v>
       </c>
       <c r="L30">
@@ -3305,34 +3305,34 @@
       <c r="A39" s="9">
         <v>1010</v>
       </c>
-      <c r="B39" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J39" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K39" s="20" t="s">
+      <c r="B39" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39" s="18" t="s">
         <v>47</v>
       </c>
       <c r="L39">
@@ -3351,7 +3351,7 @@
   <dimension ref="B2:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3360,45 +3360,45 @@
     <col min="3" max="15" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23"/>
-      <c r="C2" s="25" t="s">
+    <row r="2" spans="2:15" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="21"/>
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="23">
         <v>2</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="23">
         <v>3</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="23">
         <v>4</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="23">
         <v>5</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="23">
         <v>6</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="23">
         <v>7</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="23">
         <v>8</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="23">
         <v>9</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="23">
         <v>10</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="23" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3406,133 +3406,133 @@
       <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="24">
-        <v>0</v>
-      </c>
-      <c r="D3" s="24">
-        <v>0</v>
-      </c>
-      <c r="E3" s="24">
-        <v>0</v>
-      </c>
-      <c r="F3" s="24">
-        <v>0</v>
-      </c>
-      <c r="G3" s="24">
-        <v>0</v>
-      </c>
-      <c r="H3" s="24">
-        <v>0</v>
-      </c>
-      <c r="I3" s="24">
-        <v>0</v>
-      </c>
-      <c r="J3" s="24">
-        <v>0</v>
-      </c>
-      <c r="K3" s="24">
-        <v>0</v>
-      </c>
-      <c r="L3" s="24">
-        <v>0</v>
-      </c>
-      <c r="M3" s="24">
-        <v>0</v>
-      </c>
-      <c r="N3" s="24">
-        <v>0</v>
-      </c>
-      <c r="O3" s="24">
+      <c r="C3" s="22">
+        <v>0</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0</v>
+      </c>
+      <c r="I3" s="22">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22">
+        <v>0</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0</v>
+      </c>
+      <c r="L3" s="22">
+        <v>0</v>
+      </c>
+      <c r="M3" s="22">
+        <v>0</v>
+      </c>
+      <c r="N3" s="22">
+        <v>0</v>
+      </c>
+      <c r="O3" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>7</v>
       </c>
       <c r="D11">
@@ -3544,10 +3544,10 @@
       <c r="B12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>2</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>3</v>
       </c>
       <c r="E12">
@@ -3559,8 +3559,8 @@
       <c r="B13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
       <c r="E13">
         <f>IF(AND(COUNTIF(C13:D13,"A") &gt; 0,C13=D13),18,IF(AND(COUNTIF(C13:D13,"A") &gt; 0),SUM(C13:D13)+17,IF(AND(C13=D13,SUM(C13:D13)&gt;0),C13+26,IF(SUM(C13:D13)&gt;4,SUM(C13:D13)-4,0))))</f>
         <v>0</v>
@@ -3570,8 +3570,8 @@
       <c r="B14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
       <c r="E14">
         <f>IF(AND(COUNTIF(C14:D14,"A") &gt; 0,C14=D14),18,IF(AND(COUNTIF(C14:D14,"A") &gt; 0),SUM(C14:D14)+17,IF(AND(C14=D14,SUM(C14:D14)&gt;0),C14+26,IF(SUM(C14:D14)&gt;4,SUM(C14:D14)-4,0))))</f>
         <v>0</v>
@@ -3805,19 +3805,19 @@
         <f>C21/SUM(C19:O19)*100</f>
         <v>38.461538461538467</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="14" t="s">
         <v>64</v>
       </c>
       <c r="H21">
         <f>SUM(C12:D12) +  IF( COUNTIF(C12:D12,"A") &gt; 0, 1,0)</f>
         <v>5</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="15">
         <f>SUM(C12:D12) +  IF( COUNTIF(C12:D12,"A") &gt; 0, 11,0)</f>
         <v>5</v>
       </c>
       <c r="J21" t="str">
-        <f>INDEX(法则!B4:K39,E12,D11)</f>
+        <f>INDEX(法则!$B$4:$K$39,E12,D11)</f>
         <v>H</v>
       </c>
       <c r="K21" t="str">
@@ -3840,19 +3840,19 @@
         <f>C22/SUM(C19:O19)*100</f>
         <v>23.076923076923077</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="14" t="s">
         <v>65</v>
       </c>
       <c r="H22">
         <f>SUM(C13:D13) +  IF( COUNTIF(C13:D13,"A") &gt; 0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="20">
         <f>SUM(C13:D13) +  IF( COUNTIF(C13:D13,"A") &gt; 0, 11,0)</f>
         <v>0</v>
       </c>
       <c r="J22" t="str">
-        <f>INDEX(法则!B5:K40,E13,D11)</f>
+        <f>INDEX(法则!$B$4:$K$39,E13,D12)</f>
         <v>H</v>
       </c>
       <c r="K22" t="str">
@@ -3875,19 +3875,19 @@
         <f>C23/SUM(C19:O19)*100</f>
         <v>38.461538461538467</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="14" t="s">
         <v>66</v>
       </c>
       <c r="H23">
         <f>SUM(C14:D14) +  IF( COUNTIF(C14:D14,"A") &gt; 0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="15">
         <f>SUM(C14:D14) +  IF( COUNTIF(C14:D14,"A") &gt; 0, 11,0)</f>
         <v>0</v>
       </c>
       <c r="J23" t="str">
-        <f>INDEX(法则!B6:K41,E14,D11)</f>
+        <f>INDEX(法则!$B$4:$K$39,E14,D13)</f>
         <v>H</v>
       </c>
       <c r="K23" t="str">
@@ -3923,12 +3923,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
     <mergeCell ref="N4:N8"/>
     <mergeCell ref="O4:O8"/>
     <mergeCell ref="H4:H8"/>
@@ -3937,6 +3931,12 @@
     <mergeCell ref="K4:K8"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="M4:M8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
